--- a/excel/finished/wg7#高炉/出铁统计报表/7高炉炉温合格率精益统计表.xlsx
+++ b/excel/finished/wg7#高炉/出铁统计报表/7高炉炉温合格率精益统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\7高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5A2E8-D47B-4A2D-ABF8-354D3B48D55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B66865-F6B2-451B-8365-A94B71CBB1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>月度分析</t>
   </si>
   <si>
-    <t>八高炉炉温合格率精益管理小组年推进表（%当前年份%）</t>
-  </si>
-  <si>
     <t>月份</t>
   </si>
   <si>
@@ -249,6 +246,10 @@
   </si>
   <si>
     <t>七高炉炉温合格率精益管理小组月推进表（%当前月份%）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>七高炉炉温合格率精益管理小组年推进表（%当前年份%）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -851,6 +852,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -897,28 +916,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,149 +2362,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
+      <c r="B1" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
     </row>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60" t="s">
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="65" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="61" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61" t="s">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="66"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="49"/>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="19" t="s">
         <v>21</v>
       </c>
@@ -2564,10 +2565,10 @@
       <c r="AB4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="66"/>
+      <c r="AC4" s="49"/>
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
@@ -2644,7 +2645,7 @@
       <c r="AB5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="67"/>
+      <c r="AC5" s="50"/>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
@@ -5324,230 +5325,241 @@
       <c r="AC41" s="44"/>
     </row>
     <row r="42" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62"/>
     </row>
     <row r="43" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="50"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="56"/>
     </row>
     <row r="45" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="50"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="50"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="56"/>
     </row>
     <row r="48" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="56"/>
     </row>
     <row r="49" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="50"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="56"/>
     </row>
     <row r="50" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="56"/>
     </row>
     <row r="51" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="56"/>
     </row>
     <row r="52" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="56"/>
     </row>
     <row r="53" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="50"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="56"/>
     </row>
     <row r="54" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="50"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="56"/>
     </row>
     <row r="55" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="50"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="56"/>
     </row>
     <row r="56" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="50"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="56"/>
     </row>
     <row r="57" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="56"/>
     </row>
     <row r="58" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="53"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B43:L58"/>
+    <mergeCell ref="B42:L42"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -5562,17 +5574,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B43:L58"/>
-    <mergeCell ref="B42:L42"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -5587,7 +5588,7 @@
   <dimension ref="B1:XFB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5601,24 +5602,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="B1" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
@@ -5633,22 +5634,22 @@
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5683,7 +5684,7 @@
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="str">
@@ -5699,7 +5700,7 @@
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10" t="str">
@@ -5715,7 +5716,7 @@
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="str">
@@ -5731,7 +5732,7 @@
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="str">
@@ -5747,7 +5748,7 @@
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="str">
@@ -5763,7 +5764,7 @@
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="str">
@@ -5779,7 +5780,7 @@
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="str">
@@ -5795,7 +5796,7 @@
     </row>
     <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="str">
@@ -5811,7 +5812,7 @@
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="str">
@@ -5827,7 +5828,7 @@
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="str">
@@ -5843,7 +5844,7 @@
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="str">
@@ -5859,7 +5860,7 @@
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="str">
@@ -5875,7 +5876,7 @@
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>IF(ISERROR(AVERAGE(C5:C16)),"",AVERAGE(C5:C16))</f>
@@ -5906,8 +5907,8 @@
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5926,7 +5927,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1">
         <v>7</v>
